--- a/acc whistle.xlsx
+++ b/acc whistle.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\git\acc_whistle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test data login" sheetId="4" r:id="rId1"/>
-    <sheet name="test data daftar" sheetId="2" r:id="rId2"/>
-    <sheet name="test data search tiket" sheetId="3" r:id="rId3"/>
+    <sheet name="test data search tiket" sheetId="5" r:id="rId2"/>
+    <sheet name="test data daftar" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>email</t>
   </si>
@@ -103,12 +103,6 @@
     <t>ch24006007</t>
   </si>
   <si>
-    <t>ch24006118</t>
-  </si>
-  <si>
-    <t>ch24006119</t>
-  </si>
-  <si>
     <t>no_tiket</t>
   </si>
   <si>
@@ -119,13 +113,34 @@
   </si>
   <si>
     <t>PLP20190823003</t>
+  </si>
+  <si>
+    <t>PLP 20190823001</t>
+  </si>
+  <si>
+    <t>PLP20190823004</t>
+  </si>
+  <si>
+    <t>terdaftar</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>input tidak terdaftar</t>
+  </si>
+  <si>
+    <t>input kosong</t>
+  </si>
+  <si>
+    <t>input dengan spasi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +170,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -165,7 +187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -225,19 +247,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -526,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="C1" sqref="C1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,56 +555,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -699,74 +797,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/acc whistle.xlsx
+++ b/acc whistle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="test data login" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>email</t>
   </si>
@@ -134,6 +134,30 @@
   </si>
   <si>
     <t>input dengan spasi</t>
+  </si>
+  <si>
+    <t>christianti.angelin@tiukdwacid</t>
+  </si>
+  <si>
+    <t>email tidak sesuai format</t>
+  </si>
+  <si>
+    <t>email &amp; paswword kosong</t>
+  </si>
+  <si>
+    <t>email kosong</t>
+  </si>
+  <si>
+    <t>password kosong</t>
+  </si>
+  <si>
+    <t>password salah</t>
+  </si>
+  <si>
+    <t>email salah</t>
+  </si>
+  <si>
+    <t>berhasil login</t>
   </si>
 </sst>
 </file>
@@ -220,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -254,6 +278,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -542,64 +567,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="12"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -608,6 +666,7 @@
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
+    <hyperlink ref="A8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -617,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>

--- a/acc whistle.xlsx
+++ b/acc whistle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="test data login" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
   <si>
     <t>email</t>
   </si>
@@ -40,57 +40,21 @@
     <t>ch24006117</t>
   </si>
   <si>
-    <t>Nama lengkap</t>
-  </si>
-  <si>
-    <t>No handpone</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Password Konfirmasi</t>
-  </si>
-  <si>
-    <t>Christianti Angelin M</t>
-  </si>
-  <si>
     <t>08976543210</t>
   </si>
   <si>
-    <t>Angela</t>
-  </si>
-  <si>
-    <t>Christi</t>
-  </si>
-  <si>
     <t>Merry</t>
   </si>
   <si>
-    <t>christi@gmail.com</t>
-  </si>
-  <si>
-    <t>angels98@yahoo.com</t>
-  </si>
-  <si>
     <t>mxxxx@gmail.co.id</t>
   </si>
   <si>
-    <t>08976543211</t>
-  </si>
-  <si>
     <t>08976543220</t>
   </si>
   <si>
     <t>08976543012</t>
   </si>
   <si>
-    <t>12345ss</t>
-  </si>
-  <si>
     <t>#ff278</t>
   </si>
   <si>
@@ -158,13 +122,139 @@
   </si>
   <si>
     <t>berhasil login</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email sudah didaftarkan </t>
+  </si>
+  <si>
+    <t>no hp sudah didaftarkan</t>
+  </si>
+  <si>
+    <t>username sudah di daftarkan</t>
+  </si>
+  <si>
+    <t>fullname kurang dari 6 karakter</t>
+  </si>
+  <si>
+    <t>fullname tidak sesuai format</t>
+  </si>
+  <si>
+    <t>email tidak valid</t>
+  </si>
+  <si>
+    <t>no hp tidak sesuai format</t>
+  </si>
+  <si>
+    <t>password kurang dari 6 karakter</t>
+  </si>
+  <si>
+    <t>password konfirmasi tidak sesuai</t>
+  </si>
+  <si>
+    <t>isian kosong</t>
+  </si>
+  <si>
+    <t>akun berhasil dibuat</t>
+  </si>
+  <si>
+    <t>jason@gmail.com</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>081111111111</t>
+  </si>
+  <si>
+    <t>082295006969</t>
+  </si>
+  <si>
+    <t>valentinobudiono@gmail.como</t>
+  </si>
+  <si>
+    <t>valentino rossy b</t>
+  </si>
+  <si>
+    <t>valentino rossy a</t>
+  </si>
+  <si>
+    <t>valentino</t>
+  </si>
+  <si>
+    <t>bgdjkkkkks</t>
+  </si>
+  <si>
+    <t>valentinobudiono@gmil.como</t>
+  </si>
+  <si>
+    <t>valentinobudiono@gail.como</t>
+  </si>
+  <si>
+    <t>Merry33</t>
+  </si>
+  <si>
+    <t>jason.co.id</t>
+  </si>
+  <si>
+    <t>gggggg</t>
+  </si>
+  <si>
+    <t>nnnn</t>
+  </si>
+  <si>
+    <t>kihrde</t>
+  </si>
+  <si>
+    <t>Jasonn</t>
+  </si>
+  <si>
+    <t>Jasonnn</t>
+  </si>
+  <si>
+    <t>Jasonmm</t>
+  </si>
+  <si>
+    <t>kombinasi isian salah</t>
+  </si>
+  <si>
+    <t>valen</t>
+  </si>
+  <si>
+    <t>valentgmail.como</t>
+  </si>
+  <si>
+    <t>082769</t>
+  </si>
+  <si>
+    <t>bbjj</t>
+  </si>
+  <si>
+    <t>nama_lengkap</t>
+  </si>
+  <si>
+    <t>no_hp</t>
+  </si>
+  <si>
+    <t>password_konfirmasi</t>
+  </si>
+  <si>
+    <t>Jason Miraz</t>
+  </si>
+  <si>
+    <t>semua isian kosong</t>
+  </si>
+  <si>
+    <t>081111jijuu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +287,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF008600"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -244,33 +357,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -279,6 +368,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -288,8 +404,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF008600"/>
       <color rgb="FF27AD07"/>
-      <color rgb="FF008600"/>
       <color rgb="FFFF7757"/>
     </mruColors>
   </colors>
@@ -569,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
@@ -581,83 +697,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>32</v>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>42</v>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>43</v>
+      <c r="C8" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -687,57 +803,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>32</v>
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>31</v>
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>31</v>
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>31</v>
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>33</v>
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
-        <v>34</v>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>35</v>
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -747,113 +863,398 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="13">
+        <v>123457</v>
+      </c>
+      <c r="E4" s="13">
+        <v>123457</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
+      <c r="E6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="2">
+        <v>65779999</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="17" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B14" r:id="rId9"/>
+    <hyperlink ref="B15" r:id="rId10"/>
+    <hyperlink ref="B16" r:id="rId11"/>
+    <hyperlink ref="B18" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>